--- a/module/waapi/waapi_generatesoundbank/生成的wem文件查询.xlsx
+++ b/module/waapi/waapi_generatesoundbank/生成的wem文件查询.xlsx
@@ -1007,7 +1007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -1033,21 +1033,11 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>637133748</v>
+        <v>180142810</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Music\Mus_Enemy_BossGen.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>382172490</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Boss\Ashley\VO_Shout_Boss_Ashley_Horse_StunHit.wav</t>
+          <t>Boss\Ashley\Skill_Boss_AshleyGround_Gun_Attack6Shoot.wav</t>
         </is>
       </c>
     </row>

--- a/module/waapi/waapi_generatesoundbank/生成的wem文件查询.xlsx
+++ b/module/waapi/waapi_generatesoundbank/生成的wem文件查询.xlsx
@@ -1007,7 +1007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -1033,11 +1033,111 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>180142810</v>
+        <v>105619793</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Boss\Ashley\Skill_Boss_AshleyGround_Gun_Attack6Shoot.wav</t>
+          <t>Chara\Gratia\Skill_Gratia_Skill2.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>68107742</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Chara\Munin\Skill_Munin_TwinBlade_Execution1.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>342115184</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chara\Gratia\Skill_Gratia_Eexecution1.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>923851912</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chara\Munin\Skill_Munin_TwinBlade_Execution2.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>505515950</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chara\Munin\Skill_Munin_TwinBlade_Ultimate.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>698180566</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chara\Munin\Skill_Munin_TwinBlade_FocusAttack1.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>695324248</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chara\Munin\Skill_Munin_TwinBlade_FocusAttack3.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>603150616</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Music\Music_SystemSelect_Mix.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>72499901</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Music\Boss\Music_Boss_Ashley_Stage2.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>402014860</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Amb\Ambisonics\Amb_2D_Crematorium_Hall.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>1047216184</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Music\Boss\Music_Boss_Ashley_Stage1.wav</t>
         </is>
       </c>
     </row>

--- a/module/waapi/waapi_generatesoundbank/生成的wem文件查询.xlsx
+++ b/module/waapi/waapi_generatesoundbank/生成的wem文件查询.xlsx
@@ -1007,7 +1007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -1031,116 +1031,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>105619793</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Chara\Gratia\Skill_Gratia_Skill2.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>68107742</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Chara\Munin\Skill_Munin_TwinBlade_Execution1.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>342115184</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Chara\Gratia\Skill_Gratia_Eexecution1.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>923851912</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Chara\Munin\Skill_Munin_TwinBlade_Execution2.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>505515950</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Chara\Munin\Skill_Munin_TwinBlade_Ultimate.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>698180566</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Chara\Munin\Skill_Munin_TwinBlade_FocusAttack1.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>695324248</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Chara\Munin\Skill_Munin_TwinBlade_FocusAttack3.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>603150616</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Music\Music_SystemSelect_Mix.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>72499901</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Music\Boss\Music_Boss_Ashley_Stage2.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>402014860</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Amb\Ambisonics\Amb_2D_Crematorium_Hall.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>1047216184</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Music\Boss\Music_Boss_Ashley_Stage1.wav</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
